--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2022-2023\TIMES_IERP_SIMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29765EE1-FA09-43B2-BA61-50D1FC85EDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8207A-150A-4386-A688-24B273C09C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" tabRatio="901" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12096" yWindow="0" windowWidth="11040" windowHeight="12336" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -2856,18 +2856,6 @@
     <xf numFmtId="9" fontId="5" fillId="26" borderId="0" xfId="340" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="52" fillId="28" borderId="28" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2882,37 +2870,49 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="27" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="33" xfId="339" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="27" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="56" fillId="26" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="32" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="56" fillId="26" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="13" xfId="274" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="341">
@@ -3189,7 +3189,6 @@
     <cellStyle name="Neutralne 6" xfId="271" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
     <cellStyle name="Neutralne 7" xfId="272" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
     <cellStyle name="Neutralne 8" xfId="273" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="274" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
     <cellStyle name="Normal 2" xfId="275" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
     <cellStyle name="Normal 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
@@ -3197,6 +3196,7 @@
     <cellStyle name="Normal_MIN" xfId="277" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
     <cellStyle name="Normal_PRC" xfId="278" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
     <cellStyle name="Normale_B2020" xfId="279" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
     <cellStyle name="Normalny 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
     <cellStyle name="Normalny 4" xfId="282" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
@@ -3213,7 +3213,7 @@
     <cellStyle name="Obliczenia 6" xfId="293" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
     <cellStyle name="Obliczenia 7" xfId="294" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
     <cellStyle name="Obliczenia 8" xfId="295" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
-    <cellStyle name="Per cent" xfId="340" builtinId="5"/>
+    <cellStyle name="Procentowy" xfId="340" builtinId="5"/>
     <cellStyle name="Standard_Sce_D_Extraction" xfId="296" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
     <cellStyle name="Suma" xfId="297" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
     <cellStyle name="Suma 2" xfId="298" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
@@ -3756,7 +3756,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -3798,7 +3798,7 @@
       <c r="H3" s="82"/>
       <c r="I3" s="82"/>
       <c r="J3" s="83"/>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="117" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
       <c r="H4" s="85"/>
       <c r="I4" s="85"/>
       <c r="J4" s="86"/>
-      <c r="K4" s="105"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="84"/>
@@ -3844,7 +3844,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="86"/>
-      <c r="K5" s="105"/>
+      <c r="K5" s="117"/>
     </row>
     <row r="6" spans="1:11" ht="31.65" customHeight="1" thickBot="1">
       <c r="A6" s="84"/>
@@ -3873,7 +3873,7 @@
         <v>42</v>
       </c>
       <c r="J6" s="86"/>
-      <c r="K6" s="105"/>
+      <c r="K6" s="117"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" customHeight="1">
       <c r="A7" s="84"/>
@@ -3896,7 +3896,7 @@
       <c r="H7" s="95"/>
       <c r="I7" s="95"/>
       <c r="J7" s="86"/>
-      <c r="K7" s="105"/>
+      <c r="K7" s="117"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" customHeight="1">
       <c r="A8" s="84"/>
@@ -3919,7 +3919,7 @@
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
       <c r="J8" s="86"/>
-      <c r="K8" s="105"/>
+      <c r="K8" s="117"/>
     </row>
     <row r="9" spans="1:11" ht="18.75" customHeight="1">
       <c r="A9" s="84"/>
@@ -3942,7 +3942,7 @@
       <c r="H9" s="99"/>
       <c r="I9" s="99"/>
       <c r="J9" s="86"/>
-      <c r="K9" s="105"/>
+      <c r="K9" s="117"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" customHeight="1">
       <c r="A10" s="84"/>
@@ -3963,7 +3963,7 @@
       <c r="H10" s="97"/>
       <c r="I10" s="97"/>
       <c r="J10" s="86"/>
-      <c r="K10" s="105"/>
+      <c r="K10" s="117"/>
     </row>
     <row r="11" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
       <c r="A11" s="84"/>
@@ -3976,7 +3976,7 @@
       <c r="H11" s="103"/>
       <c r="I11" s="103"/>
       <c r="J11" s="86"/>
-      <c r="K11" s="105"/>
+      <c r="K11" s="117"/>
     </row>
     <row r="12" spans="1:11" ht="13.8" thickBot="1">
       <c r="A12" s="87"/>
@@ -3989,15 +3989,15 @@
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
       <c r="J12" s="89"/>
-      <c r="K12" s="105"/>
+      <c r="K12" s="117"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="15.75" customHeight="1">
-      <c r="B15" s="106" t="s">
+      <c r="B15" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="94" t="s">
@@ -4152,11 +4152,11 @@
       <c r="J5" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="106" t="s">
+      <c r="M5" s="118" t="s">
         <v>123</v>
       </c>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
     </row>
     <row r="6" spans="1:15" ht="47.25" customHeight="1" thickBot="1">
       <c r="B6" s="37" t="s">
@@ -4645,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4708,7 +4708,7 @@
       <c r="E5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="105" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="63" t="s">
@@ -4740,7 +4740,7 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="106" t="s">
         <v>89</v>
       </c>
       <c r="G6" s="92" t="s">
@@ -4766,7 +4766,7 @@
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90"/>
-      <c r="F7" s="111" t="s">
+      <c r="F7" s="107" t="s">
         <v>104</v>
       </c>
       <c r="G7" s="93" t="s">
@@ -4799,10 +4799,10 @@
         <v>BROWN_COAL</v>
       </c>
       <c r="E8" s="65" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>DEM_ELEC_HV</v>
-      </c>
-      <c r="F8" s="112">
+        <f>SEC_Comm!C8</f>
+        <v>ELEC_HV</v>
+      </c>
+      <c r="F8" s="108">
         <v>5.3</v>
       </c>
       <c r="G8" s="66">
@@ -4826,7 +4826,7 @@
       <c r="C9" s="68"/>
       <c r="D9" s="69"/>
       <c r="E9" s="69"/>
-      <c r="F9" s="113"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="70"/>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
@@ -4834,20 +4834,20 @@
       <c r="K9" s="72"/>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="119" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="114" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121" t="s">
         <v>142</v>
       </c>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
     </row>
     <row r="14" spans="2:12">
       <c r="E14" s="91"/>
@@ -5051,11 +5051,11 @@
       <c r="B17" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="107" t="s">
+      <c r="C17" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="45" t="str">
@@ -5088,7 +5088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9957A375-FEFC-4DDE-99F9-B11B17811EEC}">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -5129,19 +5129,19 @@
       <c r="C5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="118" t="str">
+      <c r="D5" s="111" t="str">
         <f>SEC_Comm!C10</f>
         <v>ENV_CO2</v>
       </c>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
-      <c r="H5" s="117" t="s">
+      <c r="H5" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="117" t="s">
+      <c r="I5" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="117" t="s">
+      <c r="J5" s="110" t="s">
         <v>78</v>
       </c>
     </row>
@@ -5152,11 +5152,11 @@
       <c r="C6" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="123" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="45" t="str">
@@ -5167,37 +5167,37 @@
         <f>SEC_Comm!C10</f>
         <v>ENV_CO2</v>
       </c>
-      <c r="D7" s="120">
+      <c r="D7" s="112">
         <v>110</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="47"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="45"/>
       <c r="C9" s="46"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
     </row>
     <row r="11" spans="2:10" ht="13.8" thickBot="1">
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
-      <c r="D11" s="124"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
     </row>
@@ -5210,21 +5210,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -5401,13 +5386,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
+    <ds:schemaRef ds:uri="58a8bd51-6561-42ef-8e0a-a55781e8d45f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5421,5 +5429,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB8207A-150A-4386-A688-24B273C09C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0455FDCA-942D-465F-883D-4FFF1712CCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12096" yWindow="0" windowWidth="11040" windowHeight="12336" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -4645,7 +4645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -4870,8 +4870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4930,20 +4930,19 @@
       <c r="E5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="63" t="s">
+        <v>82</v>
+      </c>
       <c r="G5" s="63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I5" s="63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="63" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4960,20 +4959,19 @@
       <c r="E6" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="64" t="s">
+        <v>90</v>
+      </c>
       <c r="G6" s="64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="64" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4994,16 +4992,15 @@
         <f>SEC_Comm!C9</f>
         <v>DEM_ELEC_HV</v>
       </c>
-      <c r="F7" s="66"/>
-      <c r="G7" s="104">
+      <c r="F7" s="104">
         <v>1</v>
       </c>
-      <c r="H7" s="67">
+      <c r="G7" s="67">
         <v>1</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="2:11" ht="13.8" thickBot="1">
       <c r="B8" s="68"/>
@@ -5011,11 +5008,10 @@
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
       <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
+      <c r="I8" s="72"/>
       <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
     </row>
     <row r="10" spans="2:11" ht="17.399999999999999">
       <c r="B10" s="73" t="s">
@@ -5210,6 +5206,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -5386,22 +5397,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5418,23 +5433,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>